--- a/ExcelIntegration/data/calorie_table_with_codes.xlsx
+++ b/ExcelIntegration/data/calorie_table_with_codes.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sandbox\git\aadennis\PythonSandboxAA\ExcelIntegration\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787C039F-0FCF-4484-AAE7-DF03476011CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9640" yWindow="7550" windowWidth="21300" windowHeight="12070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Food Items" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -28,13 +22,13 @@
     <t>Code</t>
   </si>
   <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
     <t>Calories (kcal)</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Unit</t>
   </si>
   <si>
     <t>Frozen Strawberries</t>
@@ -148,8 +142,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,21 +206,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -264,7 +250,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -298,7 +284,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -333,10 +318,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -509,23 +493,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -550,16 +532,16 @@
         <v>20</v>
       </c>
       <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2">
         <v>32</v>
       </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -567,16 +549,16 @@
         <v>21</v>
       </c>
       <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3">
         <v>89</v>
       </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -584,16 +566,16 @@
         <v>22</v>
       </c>
       <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
         <v>59</v>
       </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -601,16 +583,16 @@
         <v>23</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
         <v>52</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -618,16 +600,16 @@
         <v>24</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
         <v>17</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -635,16 +617,16 @@
         <v>25</v>
       </c>
       <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7">
         <v>25</v>
       </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -652,16 +634,16 @@
         <v>26</v>
       </c>
       <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
         <v>50</v>
       </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -669,16 +651,16 @@
         <v>27</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9">
         <v>174</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -686,16 +668,16 @@
         <v>28</v>
       </c>
       <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10">
         <v>102</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -703,16 +685,16 @@
         <v>29</v>
       </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11">
         <v>56</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -720,16 +702,16 @@
         <v>30</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
         <v>64</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -737,16 +719,16 @@
         <v>31</v>
       </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13">
         <v>100</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -754,16 +736,16 @@
         <v>32</v>
       </c>
       <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14">
         <v>64</v>
       </c>
-      <c r="D14">
-        <v>200</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -771,16 +753,16 @@
         <v>33</v>
       </c>
       <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15">
         <v>81</v>
       </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -788,13 +770,13 @@
         <v>34</v>
       </c>
       <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16">
         <v>126</v>
-      </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelIntegration/data/calorie_table_with_codes.xlsx
+++ b/ExcelIntegration/data/calorie_table_with_codes.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sandbox\git\aadennis\PythonSandboxAA\ExcelIntegration\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2058ED-29BB-49C3-9E9A-2D67C74D4171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-30828" yWindow="3684" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Food Items" sheetId="1" r:id="rId1"/>
+    <sheet name="Meals" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>Food Item</t>
   </si>
@@ -137,13 +144,34 @@
   </si>
   <si>
     <t>bowl</t>
+  </si>
+  <si>
+    <t>Meals</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Calories per Unit</t>
+  </si>
+  <si>
+    <t>Total Calories</t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +182,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -195,24 +239,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -250,7 +306,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -284,6 +340,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -318,9 +375,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,21 +551,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.7265625" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -541,7 +599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -558,7 +616,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -575,7 +633,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -592,7 +650,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -609,7 +667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -626,7 +684,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -643,7 +701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -660,7 +718,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -677,7 +735,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -694,7 +752,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -711,7 +769,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -728,7 +786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -745,7 +803,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -762,7 +820,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -777,6 +835,165 @@
       </c>
       <c r="E16">
         <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>89</v>
+      </c>
+      <c r="E7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>126</v>
+      </c>
+      <c r="E8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>52</v>
+      </c>
+      <c r="E9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>64</v>
+      </c>
+      <c r="E11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5">
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelIntegration/data/calorie_table_with_codes.xlsx
+++ b/ExcelIntegration/data/calorie_table_with_codes.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sandbox\git\aadennis\PythonSandboxAA\ExcelIntegration\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2058ED-29BB-49C3-9E9A-2D67C74D4171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="3684" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Food Items" sheetId="1" r:id="rId1"/>
     <sheet name="Meals" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -167,11 +161,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,21 +248,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -306,7 +292,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -340,7 +326,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -375,10 +360,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -551,21 +535,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.7265625" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -599,7 +583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -616,7 +600,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -633,7 +617,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -650,7 +634,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -667,7 +651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -684,7 +668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -701,7 +685,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -718,7 +702,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -735,7 +719,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -752,7 +736,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -769,7 +753,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -786,7 +770,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -803,7 +787,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -820,7 +804,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -843,33 +827,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -886,7 +861,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -903,7 +878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -920,7 +895,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -937,7 +912,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -954,7 +929,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -971,7 +946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -988,7 +963,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="D13" s="4" t="s">
         <v>46</v>
       </c>

--- a/ExcelIntegration/data/calorie_table_with_codes.xlsx
+++ b/ExcelIntegration/data/calorie_table_with_codes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>Food Item</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>NCPS</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>PLWF</t>
   </si>
 </sst>
 </file>
@@ -828,7 +840,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -844,131 +856,263 @@
         <v>42</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>45</v>
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E7">
-        <v>89</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="E8">
-        <v>126</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.5</v>
       </c>
       <c r="D9">
-        <v>52</v>
-      </c>
-      <c r="E9">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="E9" s="5">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1.5</v>
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10">
+        <v>64</v>
+      </c>
+      <c r="E10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>174</v>
+      </c>
+      <c r="E17">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>102</v>
+      </c>
+      <c r="E18">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>64</v>
-      </c>
-      <c r="E11">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="D13" s="4" t="s">
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="5">
-        <v>438</v>
+      <c r="E23" s="5">
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelIntegration/data/calorie_table_with_codes.xlsx
+++ b/ExcelIntegration/data/calorie_table_with_codes.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sandbox\git\aadennis\PythonSandboxAA\ExcelIntegration\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F6EDEC-077C-42B7-AFD4-CFAFFE075304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-30828" yWindow="3684" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Food Items" sheetId="1" r:id="rId1"/>
     <sheet name="Meals" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>Food Item</t>
   </si>
@@ -38,43 +44,34 @@
     <t>Frozen Bananas</t>
   </si>
   <si>
-    <t>Greek Yoghurt (plain, non-fat)</t>
+    <t>Lidl Greek Style Yoghurt (Full Fat)</t>
   </si>
   <si>
     <t>Brown Sugar (1 tbsp)</t>
   </si>
   <si>
-    <t>Brown Sugar (1 tsp)</t>
-  </si>
-  <si>
     <t>Semi-skimmed Milk (50 ml)</t>
   </si>
   <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>Homemade Vegetable Soup</t>
+  </si>
+  <si>
+    <t>Sourdough Bread</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Nespresso coffee pod</t>
+  </si>
+  <si>
     <t>Semi-skimmed Milk (100 ml)</t>
   </si>
   <si>
-    <t>Sourdough Bread</t>
-  </si>
-  <si>
-    <t>Butter</t>
-  </si>
-  <si>
-    <t>Jam</t>
-  </si>
-  <si>
-    <t>Honey</t>
-  </si>
-  <si>
-    <t>Homemade Vegetable Soup</t>
-  </si>
-  <si>
-    <t>Full-Fat Milk</t>
-  </si>
-  <si>
-    <t>Peas</t>
-  </si>
-  <si>
-    <t>Lidl Greek Style Yoghurt (Full Fat)</t>
+    <t>Polish Wafer</t>
   </si>
   <si>
     <t>FSXX</t>
@@ -83,43 +80,34 @@
     <t>FBXX</t>
   </si>
   <si>
-    <t>GYPN</t>
+    <t>LGSY</t>
   </si>
   <si>
     <t>BS1T</t>
   </si>
   <si>
-    <t>BS12</t>
-  </si>
-  <si>
     <t>SM5M</t>
   </si>
   <si>
+    <t>HONE</t>
+  </si>
+  <si>
+    <t>HVSX</t>
+  </si>
+  <si>
+    <t>SBXX</t>
+  </si>
+  <si>
+    <t>BUTT</t>
+  </si>
+  <si>
+    <t>NCPX</t>
+  </si>
+  <si>
     <t>SM1M</t>
   </si>
   <si>
-    <t>SBXX</t>
-  </si>
-  <si>
-    <t>BUTT</t>
-  </si>
-  <si>
-    <t>JAMX</t>
-  </si>
-  <si>
-    <t>HONE</t>
-  </si>
-  <si>
-    <t>HVSX</t>
-  </si>
-  <si>
-    <t>FMXX</t>
-  </si>
-  <si>
-    <t>PEAS</t>
-  </si>
-  <si>
-    <t>LGSY</t>
+    <t>PWXX</t>
   </si>
   <si>
     <t>g</t>
@@ -128,16 +116,19 @@
     <t>tbsp</t>
   </si>
   <si>
-    <t>tsp</t>
-  </si>
-  <si>
     <t>ml</t>
   </si>
   <si>
+    <t>bowl</t>
+  </si>
+  <si>
     <t>slice</t>
   </si>
   <si>
-    <t>bowl</t>
+    <t>pod</t>
+  </si>
+  <si>
+    <t>wafer</t>
   </si>
   <si>
     <t>Meals</t>
@@ -173,11 +164,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,13 +251,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -304,7 +303,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -338,6 +337,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -372,9 +372,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -547,21 +548,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.7265625" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,259 +581,208 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
         <v>100</v>
       </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E12">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14">
-        <v>200</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16">
-        <v>126</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -839,24 +791,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -864,18 +825,18 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -890,9 +851,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -907,12 +868,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -924,9 +885,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -941,12 +902,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5">
         <v>1.5</v>
@@ -958,12 +919,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -975,20 +936,20 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D12" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E12" s="5">
         <v>438</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
@@ -996,21 +957,21 @@
         <v>0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1022,9 +983,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1039,9 +1000,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1056,12 +1017,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1073,12 +1034,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1090,12 +1051,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1107,9 +1068,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D23" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E23" s="5">
         <v>401</v>

--- a/ExcelIntegration/data/calorie_table_with_codes.xlsx
+++ b/ExcelIntegration/data/calorie_table_with_codes.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sandbox\git\aadennis\PythonSandboxAA\ExcelIntegration\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F6EDEC-077C-42B7-AFD4-CFAFFE075304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="3684" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Food Items" sheetId="1" r:id="rId1"/>
     <sheet name="Meals" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>Food Item</t>
   </si>
@@ -156,19 +150,16 @@
   </si>
   <si>
     <t>Not Found</t>
-  </si>
-  <si>
-    <t>PLWF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,21 +242,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -303,7 +286,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -337,7 +320,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -372,10 +354,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -548,23 +529,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.7265625" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -598,7 +577,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -615,7 +594,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -632,7 +611,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -649,7 +628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -666,7 +645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -683,7 +662,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -700,7 +679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -717,7 +696,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -734,7 +713,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -751,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -768,7 +747,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -791,33 +770,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -834,7 +804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -851,7 +821,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -868,7 +838,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -885,7 +855,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -902,7 +872,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -919,7 +889,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -936,7 +906,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="D12" s="4" t="s">
         <v>41</v>
       </c>
@@ -944,12 +914,12 @@
         <v>438</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
@@ -966,7 +936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -983,7 +953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1000,7 +970,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1017,7 +987,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1034,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1051,29 +1021,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="D23" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="5">
-        <v>401</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelIntegration/data/calorie_table_with_codes.xlsx
+++ b/ExcelIntegration/data/calorie_table_with_codes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>Food Item</t>
   </si>
@@ -68,6 +68,9 @@
     <t>Polish Wafer</t>
   </si>
   <si>
+    <t>Tesco Leek, Potato &amp; Cheddar Soup (bowl)</t>
+  </si>
+  <si>
     <t>FSXX</t>
   </si>
   <si>
@@ -102,6 +105,9 @@
   </si>
   <si>
     <t>PWXX</t>
+  </si>
+  <si>
+    <t>TLPC</t>
   </si>
   <si>
     <t>g</t>
@@ -530,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
@@ -565,13 +571,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>32</v>
@@ -582,13 +588,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>89</v>
@@ -599,13 +605,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>126</v>
@@ -616,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>52</v>
@@ -633,13 +639,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -650,13 +656,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>64</v>
@@ -667,13 +673,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -684,13 +690,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>174</v>
@@ -701,13 +707,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>102</v>
@@ -718,13 +724,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -735,13 +741,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>50</v>
@@ -752,16 +758,33 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13">
         <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -779,12 +802,12 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -795,18 +818,18 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -823,7 +846,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -840,7 +863,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -857,7 +880,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -874,7 +897,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -891,7 +914,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -908,7 +931,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="D12" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="5">
         <v>438</v>
@@ -916,7 +939,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -927,18 +950,18 @@
         <v>0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -955,7 +978,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -972,7 +995,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -989,10 +1012,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1006,7 +1029,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1023,7 +1046,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -1040,7 +1063,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="D23" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" s="5">
         <v>499</v>

--- a/ExcelIntegration/data/calorie_table_with_codes.xlsx
+++ b/ExcelIntegration/data/calorie_table_with_codes.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sandbox\git\aadennis\PythonSandboxAA\ExcelIntegration\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284D463F-3B5A-4D36-A35A-922141C9DDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-30828" yWindow="3684" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Food Items" sheetId="1" r:id="rId1"/>
     <sheet name="Meals" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
   <si>
     <t>Food Item</t>
   </si>
@@ -71,6 +77,12 @@
     <t>Tesco Leek, Potato &amp; Cheddar Soup (bowl)</t>
   </si>
   <si>
+    <t>Jan's vegetable soup with cheese</t>
+  </si>
+  <si>
+    <t>Jan's vegetable soup</t>
+  </si>
+  <si>
     <t>FSXX</t>
   </si>
   <si>
@@ -110,6 +122,12 @@
     <t>TLPC</t>
   </si>
   <si>
+    <t>JVSW</t>
+  </si>
+  <si>
+    <t>JVSX</t>
+  </si>
+  <si>
     <t>g</t>
   </si>
   <si>
@@ -149,23 +167,20 @@
     <t>Total:</t>
   </si>
   <si>
-    <t>Lunch</t>
-  </si>
-  <si>
-    <t>NCPS</t>
-  </si>
-  <si>
-    <t>Not Found</t>
+    <t>Lunch by Jan - full</t>
+  </si>
+  <si>
+    <t>Lunch by Jan - minimal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,13 +263,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -292,7 +315,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -326,6 +349,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -360,9 +384,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -535,21 +560,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.7265625" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,225 +591,259 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -793,24 +852,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -818,18 +886,18 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -844,9 +912,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -861,9 +929,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -878,9 +946,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -895,9 +963,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -912,9 +980,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -929,20 +997,20 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E12" s="5">
         <v>438</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
@@ -950,35 +1018,35 @@
         <v>0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="E16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -993,9 +1061,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1010,26 +1078,26 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1044,9 +1112,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -1061,12 +1129,110 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D23" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E23" s="5">
-        <v>499</v>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D30">
+        <v>49</v>
+      </c>
+      <c r="E30" s="5">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="5">
+        <v>179.5</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelIntegration/data/calorie_table_with_codes.xlsx
+++ b/ExcelIntegration/data/calorie_table_with_codes.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sandbox\git\aadennis\PythonSandboxAA\ExcelIntegration\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284D463F-3B5A-4D36-A35A-922141C9DDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="3684" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Food Items" sheetId="1" r:id="rId1"/>
     <sheet name="Meals" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
   <si>
     <t>Food Item</t>
   </si>
@@ -83,6 +77,15 @@
     <t>Jan's vegetable soup</t>
   </si>
   <si>
+    <t>Clotted Cream</t>
+  </si>
+  <si>
+    <t>Plain Scone (Medium)</t>
+  </si>
+  <si>
+    <t>Loaded Pizza Slice (1/4 12-inch, thin base)</t>
+  </si>
+  <si>
     <t>FSXX</t>
   </si>
   <si>
@@ -128,6 +131,15 @@
     <t>JVSX</t>
   </si>
   <si>
+    <t>CCXX</t>
+  </si>
+  <si>
+    <t>PSMX</t>
+  </si>
+  <si>
+    <t>LPS1</t>
+  </si>
+  <si>
     <t>g</t>
   </si>
   <si>
@@ -147,6 +159,9 @@
   </si>
   <si>
     <t>wafer</t>
+  </si>
+  <si>
+    <t>scone</t>
   </si>
   <si>
     <t>Meals</t>
@@ -176,11 +191,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,21 +278,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -315,7 +322,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -349,7 +356,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -384,10 +390,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -560,21 +565,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.7265625" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,259 +596,310 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E16">
         <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -852,33 +908,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -886,18 +933,18 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -912,9 +959,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -929,9 +976,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -946,9 +993,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -963,9 +1010,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -980,9 +1027,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -997,20 +1044,20 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="D12" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E12" s="5">
         <v>438</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
@@ -1018,18 +1065,18 @@
         <v>0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1044,9 +1091,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1061,9 +1108,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1078,9 +1125,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1095,9 +1142,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1112,9 +1159,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -1129,20 +1176,20 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="D23" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E23" s="5">
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
         <v>1</v>
       </c>
@@ -1150,18 +1197,18 @@
         <v>0</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -1176,9 +1223,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1193,9 +1240,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -1210,9 +1257,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
@@ -1227,9 +1274,9 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5">
       <c r="D32" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E32" s="5">
         <v>179.5</v>
